--- a/дз 4 угримова.xlsx
+++ b/дз 4 угримова.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Анна\Desktop\домашние задания\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Анна\Desktop\домашние задания\github\ugrimova_homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>passed</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Данные успешно отредактированы</t>
+  </si>
+  <si>
+    <t>ЭТОТ ТЕСТ Я ДОБАВИЛА ДЛЯ ТОГО, ЧТОБЫ ПРОВЕРИТЬ КАК РАБОТАЕТ РЕПОЗИТОРИЙ</t>
   </si>
 </sst>
 </file>
@@ -784,6 +787,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -792,33 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,7 +952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,7 +987,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,7 +1223,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1436,43 +1439,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="42"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="42"/>
+      <c r="R6" s="51"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="42"/>
+      <c r="T6" s="51"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1482,29 +1485,29 @@
     </row>
     <row r="7" spans="1:124" ht="127.05" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="42"/>
+      <c r="L7" s="51"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="42"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="42"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="42"/>
+      <c r="T7" s="51"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1832,13 +1835,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="42" t="s">
         <v>58</v>
       </c>
       <c r="G14" s="3"/>
@@ -2149,13 +2152,15 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="28.8">
       <c r="A23" s="12"/>
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2791,7 +2796,7 @@
       </c>
       <c r="E44" s="23">
         <f>COUNTA(D8:D42)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
@@ -3208,12 +3213,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3221,6 +3220,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">

--- a/дз 4 угримова.xlsx
+++ b/дз 4 угримова.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>passed</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>ЭТОТ ТЕСТ Я ДОБАВИЛА ДЛЯ ТОГО, ЧТОБЫ ПРОВЕРИТЬ КАК РАБОТАЕТ РЕПОЗИТОРИЙ</t>
+  </si>
+  <si>
+    <t>проверка №2. первый пуш вроде бы прошел - закрепим результат</t>
+  </si>
+  <si>
+    <t>редактирую документ 2 раз для 2го коммита и пуша</t>
   </si>
 </sst>
 </file>
@@ -793,6 +799,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -807,21 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1220,10 +1226,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D24:D25"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1439,43 +1445,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="49" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="52"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="51"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="51"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="51"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1485,29 +1491,29 @@
     </row>
     <row r="7" spans="1:124" ht="127.05" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="53"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="51"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="51"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="51"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="51"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="51"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2244,14 +2250,18 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="28.8">
       <c r="A26" s="12"/>
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="20"/>
@@ -2796,7 +2806,7 @@
       </c>
       <c r="E44" s="23">
         <f>COUNTA(D8:D42)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
@@ -3213,6 +3223,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3220,12 +3236,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
